--- a/test-output/data.xlsx
+++ b/test-output/data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects_Java\egt_test_lab\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects_Java\Demo\test-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDD55B-C3F9-4B2E-86F9-73AFB1B40877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BB88B-683F-435C-8124-50382F7EA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="5" r:id="rId1"/>
-    <sheet name="Const" sheetId="6" r:id="rId2"/>
+    <sheet name="Instagram" sheetId="8" r:id="rId1"/>
+    <sheet name="TestData" sheetId="5" r:id="rId2"/>
+    <sheet name="Const" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Male">Const!$B$1:$B$3</definedName>
+    <definedName name="Account_1">Const!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -111,13 +112,31 @@
     <t>0888123456</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Music</t>
+    <t>Comment URL</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/DNDe3MkNYAr/</t>
+  </si>
+  <si>
+    <t>Account 1</t>
+  </si>
+  <si>
+    <t>Account 3</t>
+  </si>
+  <si>
+    <t>Account 2</t>
+  </si>
+  <si>
+    <t>sandboxqarus@gmail.com</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -125,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,12 +197,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,8 +253,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -480,11 +557,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C84AB-73BE-470E-87A0-7647CF19B914}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2BE022D0-10B0-4508-990A-0D1E151FECCA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{B8313A7A-2C78-4CBC-9B20-C693A3AFE0AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879082B5-0501-49C8-ADB5-9392483A99D6}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +704,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I2" xr:uid="{E77502C9-09FC-43A6-8CE4-6068502FE5D2}">
-      <formula1>Male</formula1>
+      <formula1>Account_1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -603,41 +726,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470DEF3-1360-4827-A4C7-235688089EDF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{44DF0F94-6986-4439-B1C1-066DF02BF0EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-output/data.xlsx
+++ b/test-output/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects_Java\Demo\test-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BB88B-683F-435C-8124-50382F7EA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB83F0-6C3A-4BE7-BD89-54A523F9D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instagram" sheetId="8" r:id="rId1"/>
-    <sheet name="TestData" sheetId="5" r:id="rId2"/>
-    <sheet name="Const" sheetId="6" r:id="rId3"/>
+    <sheet name="TestData" sheetId="5" r:id="rId1"/>
+    <sheet name="Const" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Account_1">Const!$B$1:$C$1</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -112,12 +111,6 @@
     <t>0888123456</t>
   </si>
   <si>
-    <t>Comment URL</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/DNDe3MkNYAr/</t>
-  </si>
-  <si>
     <t>Account 1</t>
   </si>
   <si>
@@ -131,12 +124,6 @@
   </si>
   <si>
     <t>automation</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -180,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,49 +184,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,27 +205,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,56 +486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C84AB-73BE-470E-87A0-7647CF19B914}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="91.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2BE022D0-10B0-4508-990A-0D1E151FECCA}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{B8313A7A-2C78-4CBC-9B20-C693A3AFE0AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879082B5-0501-49C8-ADB5-9392483A99D6}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B470DEF3-1360-4827-A4C7-235688089EDF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -743,23 +626,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
